--- a/data/pca/factorExposure/factorExposure_2014-10-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.004422840816716264</v>
+        <v>0.01852666573795645</v>
       </c>
       <c r="C2">
-        <v>-0.1113328242728125</v>
+        <v>0.07315607912357035</v>
       </c>
       <c r="D2">
-        <v>-0.006187116449421242</v>
+        <v>0.0293393162955316</v>
       </c>
       <c r="E2">
-        <v>0.2313491299254548</v>
+        <v>0.09733621143287903</v>
       </c>
       <c r="F2">
-        <v>0.07940879535910474</v>
+        <v>0.1283317806041195</v>
       </c>
       <c r="G2">
-        <v>0.05846656308767192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.005179994872723741</v>
+      </c>
+      <c r="H2">
+        <v>0.05709255469725692</v>
+      </c>
+      <c r="I2">
+        <v>0.007100176103030795</v>
+      </c>
+      <c r="J2">
+        <v>-0.1231824115131221</v>
+      </c>
+      <c r="K2">
+        <v>-0.1495738059519006</v>
+      </c>
+      <c r="L2">
+        <v>-0.1279548850892766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.01419354253213335</v>
+        <v>0.01727990165998374</v>
       </c>
       <c r="C4">
-        <v>-0.1630992587492155</v>
+        <v>0.1438168598448332</v>
       </c>
       <c r="D4">
-        <v>0.02257472656023897</v>
+        <v>0.06496863979880323</v>
       </c>
       <c r="E4">
-        <v>0.09875629662764979</v>
+        <v>-0.01541904086875332</v>
       </c>
       <c r="F4">
-        <v>-0.07524081660496197</v>
+        <v>0.08343255672943659</v>
       </c>
       <c r="G4">
-        <v>0.02738991003013095</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.01202554465352776</v>
+      </c>
+      <c r="H4">
+        <v>0.1053563587911494</v>
+      </c>
+      <c r="I4">
+        <v>0.02594490903802745</v>
+      </c>
+      <c r="J4">
+        <v>-0.1946469077403044</v>
+      </c>
+      <c r="K4">
+        <v>-0.03942869164668215</v>
+      </c>
+      <c r="L4">
+        <v>-0.0299561887775037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.02463660021866766</v>
+        <v>0.03893674272764523</v>
       </c>
       <c r="C6">
-        <v>-0.08079897535117397</v>
+        <v>0.08846930573757036</v>
       </c>
       <c r="D6">
-        <v>0.04952318036035216</v>
+        <v>0.02860777291429194</v>
       </c>
       <c r="E6">
-        <v>0.05799692779285693</v>
+        <v>0.04641507588956936</v>
       </c>
       <c r="F6">
-        <v>0.004542156201192905</v>
+        <v>0.01440783869169653</v>
       </c>
       <c r="G6">
-        <v>-0.01187471126728879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.04068886075069748</v>
+      </c>
+      <c r="H6">
+        <v>0.02723624527492016</v>
+      </c>
+      <c r="I6">
+        <v>-0.07595395064270823</v>
+      </c>
+      <c r="J6">
+        <v>0.009353221851590212</v>
+      </c>
+      <c r="K6">
+        <v>-0.0960127363084578</v>
+      </c>
+      <c r="L6">
+        <v>0.02651982403688921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.000636021843138107</v>
+        <v>0.01734001116274933</v>
       </c>
       <c r="C7">
-        <v>-0.06671584664965378</v>
+        <v>0.07537994830602328</v>
       </c>
       <c r="D7">
-        <v>0.03050135454342333</v>
+        <v>0.02784607943027791</v>
       </c>
       <c r="E7">
-        <v>0.04136937495268805</v>
+        <v>-0.01630171802041146</v>
       </c>
       <c r="F7">
-        <v>-0.0427320450235673</v>
+        <v>0.005939919097846453</v>
       </c>
       <c r="G7">
-        <v>-0.007245976987222916</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.04190433341174914</v>
+      </c>
+      <c r="H7">
+        <v>0.1012552759860945</v>
+      </c>
+      <c r="I7">
+        <v>-0.01067800029304035</v>
+      </c>
+      <c r="J7">
+        <v>-0.04437881628413913</v>
+      </c>
+      <c r="K7">
+        <v>-0.02187186684556223</v>
+      </c>
+      <c r="L7">
+        <v>-0.02309405924904291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.01025856357268599</v>
+        <v>-0.001227340856110453</v>
       </c>
       <c r="C8">
-        <v>-0.07254217212625562</v>
+        <v>0.06141968549332472</v>
       </c>
       <c r="D8">
-        <v>0.02735298660721262</v>
+        <v>0.04257419816327525</v>
       </c>
       <c r="E8">
-        <v>0.09527431435193384</v>
+        <v>0.02167342733462245</v>
       </c>
       <c r="F8">
-        <v>-0.02299780794313267</v>
+        <v>0.05772050924888041</v>
       </c>
       <c r="G8">
-        <v>0.0313342162593502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01264083155009028</v>
+      </c>
+      <c r="H8">
+        <v>0.05665971105626124</v>
+      </c>
+      <c r="I8">
+        <v>-0.002334107766721091</v>
+      </c>
+      <c r="J8">
+        <v>-0.008783517393358985</v>
+      </c>
+      <c r="K8">
+        <v>0.0006251989472289455</v>
+      </c>
+      <c r="L8">
+        <v>-0.001070444716556753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.005320756033415158</v>
+        <v>0.01223879471736813</v>
       </c>
       <c r="C9">
-        <v>-0.1286934749605744</v>
+        <v>0.1060064450317218</v>
       </c>
       <c r="D9">
-        <v>0.03435808771098973</v>
+        <v>0.04350069499675822</v>
       </c>
       <c r="E9">
-        <v>0.04503143587931777</v>
+        <v>0.003242994892607298</v>
       </c>
       <c r="F9">
-        <v>-0.02902878502368674</v>
+        <v>0.03356495909110395</v>
       </c>
       <c r="G9">
-        <v>-0.02713683556194912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.001310609658179556</v>
+      </c>
+      <c r="H9">
+        <v>0.09312819709131559</v>
+      </c>
+      <c r="I9">
+        <v>-0.01416974819199538</v>
+      </c>
+      <c r="J9">
+        <v>-0.1059446495602245</v>
+      </c>
+      <c r="K9">
+        <v>-0.00401540776951404</v>
+      </c>
+      <c r="L9">
+        <v>0.005580402050641855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.2734028888743252</v>
+        <v>0.2474758333811113</v>
       </c>
       <c r="C10">
-        <v>0.07819180892194301</v>
+        <v>-0.0909872865080705</v>
       </c>
       <c r="D10">
-        <v>-0.02175011365833488</v>
+        <v>-0.003704616657793272</v>
       </c>
       <c r="E10">
-        <v>-0.03227738491200508</v>
+        <v>0.01287303338519781</v>
       </c>
       <c r="F10">
-        <v>-0.006398610523320741</v>
+        <v>-0.0158604545654797</v>
       </c>
       <c r="G10">
-        <v>-0.01910365138645227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01302205924020936</v>
+      </c>
+      <c r="H10">
+        <v>0.03512370808552071</v>
+      </c>
+      <c r="I10">
+        <v>0.1565981867347177</v>
+      </c>
+      <c r="J10">
+        <v>-0.01424374211912221</v>
+      </c>
+      <c r="K10">
+        <v>0.1285237485157679</v>
+      </c>
+      <c r="L10">
+        <v>-0.01745096666375104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.006133650817015572</v>
+        <v>0.01620422871915068</v>
       </c>
       <c r="C11">
-        <v>-0.07180455402983882</v>
+        <v>0.08443443076668418</v>
       </c>
       <c r="D11">
-        <v>0.02609386938690678</v>
+        <v>0.037736401511248</v>
       </c>
       <c r="E11">
-        <v>-0.01207007000819668</v>
+        <v>-0.009806384026564629</v>
       </c>
       <c r="F11">
-        <v>-0.02637158213141563</v>
+        <v>-0.0119355437575197</v>
       </c>
       <c r="G11">
-        <v>-0.04128575167657722</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.008746588900634436</v>
+      </c>
+      <c r="H11">
+        <v>0.0313854841801782</v>
+      </c>
+      <c r="I11">
+        <v>-0.0247805941951478</v>
+      </c>
+      <c r="J11">
+        <v>0.0054723112952049</v>
+      </c>
+      <c r="K11">
+        <v>0.02207054699751006</v>
+      </c>
+      <c r="L11">
+        <v>0.05711220871260694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.005315550551956814</v>
+        <v>0.01621027763855636</v>
       </c>
       <c r="C12">
-        <v>-0.05879913753688555</v>
+        <v>0.06046272009707118</v>
       </c>
       <c r="D12">
-        <v>0.0291388759237734</v>
+        <v>0.02204906129261489</v>
       </c>
       <c r="E12">
-        <v>-0.009202296614256608</v>
+        <v>0.01405953504650496</v>
       </c>
       <c r="F12">
-        <v>0.002456288957655904</v>
+        <v>-0.01983856649119965</v>
       </c>
       <c r="G12">
-        <v>-0.07050902452552248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.02669553954642168</v>
+      </c>
+      <c r="H12">
+        <v>0.0297423139850327</v>
+      </c>
+      <c r="I12">
+        <v>-0.01957136153902706</v>
+      </c>
+      <c r="J12">
+        <v>-0.003678156597405287</v>
+      </c>
+      <c r="K12">
+        <v>0.01430792005853911</v>
+      </c>
+      <c r="L12">
+        <v>0.05340006057061281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.0175280890504262</v>
+        <v>0.006705399871550972</v>
       </c>
       <c r="C13">
-        <v>-0.1283662636481377</v>
+        <v>0.1204859704131732</v>
       </c>
       <c r="D13">
-        <v>0.05650675827889301</v>
+        <v>0.04246368884470819</v>
       </c>
       <c r="E13">
-        <v>0.05565774402365022</v>
+        <v>0.1441581184294413</v>
       </c>
       <c r="F13">
-        <v>-0.02349575990736429</v>
+        <v>0.06413324426788913</v>
       </c>
       <c r="G13">
-        <v>-0.184412632160276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1152074527443175</v>
+      </c>
+      <c r="H13">
+        <v>0.1324469133537546</v>
+      </c>
+      <c r="I13">
+        <v>0.2133122720160672</v>
+      </c>
+      <c r="J13">
+        <v>0.2327917955262156</v>
+      </c>
+      <c r="K13">
+        <v>0.07235485358641881</v>
+      </c>
+      <c r="L13">
+        <v>0.02458475018030623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.006726960038685293</v>
+        <v>0.0187164457076435</v>
       </c>
       <c r="C14">
-        <v>-0.06987640325660602</v>
+        <v>0.07611943971685438</v>
       </c>
       <c r="D14">
-        <v>0.02969329167937726</v>
+        <v>0.05014483729223753</v>
       </c>
       <c r="E14">
-        <v>0.04213993649319542</v>
+        <v>0.04419561735321918</v>
       </c>
       <c r="F14">
-        <v>0.005925598224844827</v>
+        <v>-0.01526476615524165</v>
       </c>
       <c r="G14">
-        <v>-0.06299076111061429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.07395932920592645</v>
+      </c>
+      <c r="H14">
+        <v>0.2086767418567195</v>
+      </c>
+      <c r="I14">
+        <v>-0.04021091929065138</v>
+      </c>
+      <c r="J14">
+        <v>0.09897757477516657</v>
+      </c>
+      <c r="K14">
+        <v>0.05639495554196537</v>
+      </c>
+      <c r="L14">
+        <v>-0.1601541252635567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.005873753055883882</v>
+        <v>0.002214509756726828</v>
       </c>
       <c r="C15">
-        <v>-0.09981172239978453</v>
+        <v>0.08117360383482909</v>
       </c>
       <c r="D15">
-        <v>0.03986481803541232</v>
+        <v>0.0353748992108086</v>
       </c>
       <c r="E15">
-        <v>0.06908105843775485</v>
+        <v>0.006293430017527166</v>
       </c>
       <c r="F15">
-        <v>-0.02798928386291568</v>
+        <v>0.02404668127923706</v>
       </c>
       <c r="G15">
-        <v>-0.03129033486838813</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.03083963838185542</v>
+      </c>
+      <c r="H15">
+        <v>0.09066993325811085</v>
+      </c>
+      <c r="I15">
+        <v>-0.02805008137634472</v>
+      </c>
+      <c r="J15">
+        <v>0.027959960726176</v>
+      </c>
+      <c r="K15">
+        <v>0.04834217637118581</v>
+      </c>
+      <c r="L15">
+        <v>-0.02888435114551214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.009117973725030643</v>
+        <v>0.01517027638709913</v>
       </c>
       <c r="C16">
-        <v>-0.06496943271681897</v>
+        <v>0.06444732749035434</v>
       </c>
       <c r="D16">
-        <v>0.01749299381207988</v>
+        <v>0.02612932102536192</v>
       </c>
       <c r="E16">
-        <v>-0.01032482298371877</v>
+        <v>-0.003847909511928268</v>
       </c>
       <c r="F16">
-        <v>-0.003335577627274489</v>
+        <v>-0.009575527709585765</v>
       </c>
       <c r="G16">
-        <v>-0.03377460601676537</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.007568520897077369</v>
+      </c>
+      <c r="H16">
+        <v>0.02384388418568134</v>
+      </c>
+      <c r="I16">
+        <v>-0.02084903326433672</v>
+      </c>
+      <c r="J16">
+        <v>-0.004759204560300349</v>
+      </c>
+      <c r="K16">
+        <v>0.009540132468337693</v>
+      </c>
+      <c r="L16">
+        <v>0.03984155837489173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.0102990531970681</v>
+        <v>0.01322889626910987</v>
       </c>
       <c r="C20">
-        <v>-0.09120155320513576</v>
+        <v>0.08657019514488996</v>
       </c>
       <c r="D20">
-        <v>0.01798638035324165</v>
+        <v>0.02572736163351844</v>
       </c>
       <c r="E20">
-        <v>0.009775543840704372</v>
+        <v>-0.02612317779140117</v>
       </c>
       <c r="F20">
-        <v>-0.06629830110612561</v>
+        <v>0.001461824787419367</v>
       </c>
       <c r="G20">
-        <v>-0.08129397318147893</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.03987097875662225</v>
+      </c>
+      <c r="H20">
+        <v>0.07336615143109065</v>
+      </c>
+      <c r="I20">
+        <v>-0.01863317346801206</v>
+      </c>
+      <c r="J20">
+        <v>-0.02257111608212102</v>
+      </c>
+      <c r="K20">
+        <v>-0.000214573963442459</v>
+      </c>
+      <c r="L20">
+        <v>0.00852124974225847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.001848103914001992</v>
+        <v>0.01334678230270487</v>
       </c>
       <c r="C21">
-        <v>-0.09361313305267317</v>
+        <v>0.0741667899482966</v>
       </c>
       <c r="D21">
-        <v>-0.02628813552868658</v>
+        <v>0.02276653315282883</v>
       </c>
       <c r="E21">
-        <v>0.04923659614986721</v>
+        <v>0.08818910791708745</v>
       </c>
       <c r="F21">
-        <v>0.04361883108251298</v>
+        <v>-0.01486651023220701</v>
       </c>
       <c r="G21">
-        <v>-0.05786070180492332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01612613169662734</v>
+      </c>
+      <c r="H21">
+        <v>0.1430584115972215</v>
+      </c>
+      <c r="I21">
+        <v>0.0248422562879163</v>
+      </c>
+      <c r="J21">
+        <v>0.04034744212930249</v>
+      </c>
+      <c r="K21">
+        <v>0.02649747872493764</v>
+      </c>
+      <c r="L21">
+        <v>0.01768493836090275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.04079507256034597</v>
+        <v>0.006167672518719188</v>
       </c>
       <c r="C22">
-        <v>-0.1956618002503951</v>
+        <v>0.1732001734675317</v>
       </c>
       <c r="D22">
-        <v>-0.08712756255372923</v>
+        <v>0.0172655461086785</v>
       </c>
       <c r="E22">
-        <v>0.2876446560948889</v>
+        <v>0.06232329350738539</v>
       </c>
       <c r="F22">
-        <v>-0.1336034626061662</v>
+        <v>0.5284575664025499</v>
       </c>
       <c r="G22">
-        <v>0.2016335624188598</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.009183791407632759</v>
+      </c>
+      <c r="H22">
+        <v>-0.2970935735382039</v>
+      </c>
+      <c r="I22">
+        <v>0.01818888563982606</v>
+      </c>
+      <c r="J22">
+        <v>0.1507110925117897</v>
+      </c>
+      <c r="K22">
+        <v>0.1594107951608979</v>
+      </c>
+      <c r="L22">
+        <v>0.03883916328904299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.04056832521301393</v>
+        <v>0.01107578622313449</v>
       </c>
       <c r="C23">
-        <v>-0.1962879736317421</v>
+        <v>0.1769209644024902</v>
       </c>
       <c r="D23">
-        <v>-0.08684702586366948</v>
+        <v>0.01637293970796143</v>
       </c>
       <c r="E23">
-        <v>0.2834012583530989</v>
+        <v>0.06118392789614248</v>
       </c>
       <c r="F23">
-        <v>-0.132147874934849</v>
+        <v>0.5103937971214431</v>
       </c>
       <c r="G23">
-        <v>0.2010661212531202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.006284709098877127</v>
+      </c>
+      <c r="H23">
+        <v>-0.2758722458465639</v>
+      </c>
+      <c r="I23">
+        <v>0.01104349020214286</v>
+      </c>
+      <c r="J23">
+        <v>0.1374500613149795</v>
+      </c>
+      <c r="K23">
+        <v>0.1540396545478956</v>
+      </c>
+      <c r="L23">
+        <v>0.04336050831968451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.002851466183983111</v>
+        <v>0.01648038223078297</v>
       </c>
       <c r="C24">
-        <v>-0.06925040656115201</v>
+        <v>0.07066332591669976</v>
       </c>
       <c r="D24">
-        <v>0.0402076101398291</v>
+        <v>0.03900619120406606</v>
       </c>
       <c r="E24">
-        <v>-0.008406323381274464</v>
+        <v>-0.007450961212747344</v>
       </c>
       <c r="F24">
-        <v>-0.01742766478790906</v>
+        <v>-0.009879072708581429</v>
       </c>
       <c r="G24">
-        <v>-0.05444365758555279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02194318582179217</v>
+      </c>
+      <c r="H24">
+        <v>0.04153880372317974</v>
+      </c>
+      <c r="I24">
+        <v>-0.0219879860309857</v>
+      </c>
+      <c r="J24">
+        <v>-0.003000096588557807</v>
+      </c>
+      <c r="K24">
+        <v>0.02102195651445654</v>
+      </c>
+      <c r="L24">
+        <v>0.04796980484104346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.006991918486208416</v>
+        <v>0.02058058735860503</v>
       </c>
       <c r="C25">
-        <v>-0.06797639984136467</v>
+        <v>0.07069663703748906</v>
       </c>
       <c r="D25">
-        <v>0.0157614835740417</v>
+        <v>0.02767410879604484</v>
       </c>
       <c r="E25">
-        <v>-0.01681006264068707</v>
+        <v>-0.008741443773952372</v>
       </c>
       <c r="F25">
-        <v>-0.01946700059152808</v>
+        <v>-0.007400830778498599</v>
       </c>
       <c r="G25">
-        <v>-0.05221806116438999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.01830826585286401</v>
+      </c>
+      <c r="H25">
+        <v>0.03483142668231053</v>
+      </c>
+      <c r="I25">
+        <v>-0.01071571795113991</v>
+      </c>
+      <c r="J25">
+        <v>0.003874961092773633</v>
+      </c>
+      <c r="K25">
+        <v>0.03026851346996428</v>
+      </c>
+      <c r="L25">
+        <v>0.03221950294832097</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.00566231746484413</v>
+        <v>0.02440377489879923</v>
       </c>
       <c r="C26">
-        <v>-0.06425904417013734</v>
+        <v>0.06101580922026736</v>
       </c>
       <c r="D26">
-        <v>0.05726965377333378</v>
+        <v>0.06405863159789267</v>
       </c>
       <c r="E26">
-        <v>0.01965952632269617</v>
+        <v>-0.007325920807080791</v>
       </c>
       <c r="F26">
-        <v>0.007943901700691664</v>
+        <v>-0.01528786356049075</v>
       </c>
       <c r="G26">
-        <v>-0.04173916833663197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.003988570639095888</v>
+      </c>
+      <c r="H26">
+        <v>0.1027068048500078</v>
+      </c>
+      <c r="I26">
+        <v>-0.0510075807888736</v>
+      </c>
+      <c r="J26">
+        <v>-0.1224356743257118</v>
+      </c>
+      <c r="K26">
+        <v>-0.02814270585135486</v>
+      </c>
+      <c r="L26">
+        <v>0.05229349340874631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.3776219326662781</v>
+        <v>0.3186044812771963</v>
       </c>
       <c r="C28">
-        <v>0.09981540002221619</v>
+        <v>-0.1078745496142998</v>
       </c>
       <c r="D28">
-        <v>-0.02516889694823684</v>
+        <v>-0.03256129839586232</v>
       </c>
       <c r="E28">
-        <v>-0.1015342343319562</v>
+        <v>0.0247564785021777</v>
       </c>
       <c r="F28">
-        <v>0.06194153790159888</v>
+        <v>0.03178515028650081</v>
       </c>
       <c r="G28">
-        <v>0.0007903030626772332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1264691511211393</v>
+      </c>
+      <c r="H28">
+        <v>0.06041756759863701</v>
+      </c>
+      <c r="I28">
+        <v>0.2203199974670871</v>
+      </c>
+      <c r="J28">
+        <v>-0.003304764241122927</v>
+      </c>
+      <c r="K28">
+        <v>-0.000947143872326701</v>
+      </c>
+      <c r="L28">
+        <v>0.02649332097470923</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.004431692568654398</v>
+        <v>0.0131161709864979</v>
       </c>
       <c r="C29">
-        <v>-0.07275280698017345</v>
+        <v>0.08110864618482962</v>
       </c>
       <c r="D29">
-        <v>0.04349315777046898</v>
+        <v>0.05517496874020664</v>
       </c>
       <c r="E29">
-        <v>0.04509148673800242</v>
+        <v>0.05445657372695761</v>
       </c>
       <c r="F29">
-        <v>-0.01014252440942285</v>
+        <v>-0.009483863669988992</v>
       </c>
       <c r="G29">
-        <v>-0.09168997651383096</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1143136976701385</v>
+      </c>
+      <c r="H29">
+        <v>0.2953767843608528</v>
+      </c>
+      <c r="I29">
+        <v>-0.03399330792874076</v>
+      </c>
+      <c r="J29">
+        <v>0.1476614068583004</v>
+      </c>
+      <c r="K29">
+        <v>0.08750831656442483</v>
+      </c>
+      <c r="L29">
+        <v>-0.3019390225388913</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.03078081142514725</v>
+        <v>0.03053980086871934</v>
       </c>
       <c r="C30">
-        <v>-0.1730987745244897</v>
+        <v>0.142986650356775</v>
       </c>
       <c r="D30">
-        <v>0.05389741679124432</v>
+        <v>0.05594140478183727</v>
       </c>
       <c r="E30">
-        <v>0.05539897527671958</v>
+        <v>0.006535772303037739</v>
       </c>
       <c r="F30">
-        <v>-0.04894664355669764</v>
+        <v>0.06781365333854848</v>
       </c>
       <c r="G30">
-        <v>0.006592162181428494</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01151866301787709</v>
+      </c>
+      <c r="H30">
+        <v>0.02805685315089364</v>
+      </c>
+      <c r="I30">
+        <v>-0.0427971126511234</v>
+      </c>
+      <c r="J30">
+        <v>-0.07160452433469643</v>
+      </c>
+      <c r="K30">
+        <v>-0.05636705600775701</v>
+      </c>
+      <c r="L30">
+        <v>0.02456753063049965</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.005287996144125608</v>
+        <v>0.01310866474998971</v>
       </c>
       <c r="C31">
-        <v>-0.06532152412480215</v>
+        <v>0.08249719838066161</v>
       </c>
       <c r="D31">
-        <v>0.03866140620407243</v>
+        <v>0.04123027667404566</v>
       </c>
       <c r="E31">
-        <v>-0.01394696558426856</v>
+        <v>0.0003756187797505148</v>
       </c>
       <c r="F31">
-        <v>0.008991569436590402</v>
+        <v>-0.003204879548786251</v>
       </c>
       <c r="G31">
-        <v>-0.01526353257170614</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02923032156383825</v>
+      </c>
+      <c r="H31">
+        <v>0.03448899434094032</v>
+      </c>
+      <c r="I31">
+        <v>-0.01728695390531722</v>
+      </c>
+      <c r="J31">
+        <v>0.01644790721155985</v>
+      </c>
+      <c r="K31">
+        <v>0.03777572725878085</v>
+      </c>
+      <c r="L31">
+        <v>0.03788883094533314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.01811777657217374</v>
+        <v>0.02161673909096488</v>
       </c>
       <c r="C32">
-        <v>-0.08340715382519025</v>
+        <v>0.05617398003729002</v>
       </c>
       <c r="D32">
-        <v>-0.01029303674199257</v>
+        <v>0.01785832811417603</v>
       </c>
       <c r="E32">
-        <v>0.1610295459065332</v>
+        <v>0.09458007075715602</v>
       </c>
       <c r="F32">
-        <v>0.0006943326536580626</v>
+        <v>0.07105091558121131</v>
       </c>
       <c r="G32">
-        <v>-0.05644200206533353</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.06453368094265598</v>
+      </c>
+      <c r="H32">
+        <v>0.1693857914841091</v>
+      </c>
+      <c r="I32">
+        <v>0.2497336120068507</v>
+      </c>
+      <c r="J32">
+        <v>0.08857169361342</v>
+      </c>
+      <c r="K32">
+        <v>-0.05565814813539374</v>
+      </c>
+      <c r="L32">
+        <v>-0.1434313410516796</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.01281340924257756</v>
+        <v>0.01692344574651659</v>
       </c>
       <c r="C33">
-        <v>-0.0984647710832136</v>
+        <v>0.1079617208053737</v>
       </c>
       <c r="D33">
-        <v>0.05887673733058404</v>
+        <v>0.04763887565377058</v>
       </c>
       <c r="E33">
-        <v>0.02023507513502414</v>
+        <v>-0.003168366941379543</v>
       </c>
       <c r="F33">
-        <v>-0.004903565042795343</v>
+        <v>0.01580504481556335</v>
       </c>
       <c r="G33">
-        <v>-0.03240992537532012</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02355145835030984</v>
+      </c>
+      <c r="H33">
+        <v>0.0585614366200561</v>
+      </c>
+      <c r="I33">
+        <v>0.01031123011118831</v>
+      </c>
+      <c r="J33">
+        <v>-0.01805265542763311</v>
+      </c>
+      <c r="K33">
+        <v>0.02257013199066784</v>
+      </c>
+      <c r="L33">
+        <v>0.01754791282442351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.003387167810824015</v>
+        <v>0.01636325746834105</v>
       </c>
       <c r="C34">
-        <v>-0.05325804185504322</v>
+        <v>0.05140243657549336</v>
       </c>
       <c r="D34">
-        <v>0.02304097689696324</v>
+        <v>0.02064555870856864</v>
       </c>
       <c r="E34">
-        <v>0.001699956500363002</v>
+        <v>4.654137874659415e-05</v>
       </c>
       <c r="F34">
-        <v>0.002117480461052613</v>
+        <v>-0.01068804779921165</v>
       </c>
       <c r="G34">
-        <v>-0.04080034947444776</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0159233138189681</v>
+      </c>
+      <c r="H34">
+        <v>0.009110130926906433</v>
+      </c>
+      <c r="I34">
+        <v>-0.01534129137655578</v>
+      </c>
+      <c r="J34">
+        <v>-0.007380106936459359</v>
+      </c>
+      <c r="K34">
+        <v>0.02160361108632075</v>
+      </c>
+      <c r="L34">
+        <v>0.04188063981076987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.002187030255854221</v>
+        <v>0.009714593012357046</v>
       </c>
       <c r="C35">
-        <v>-0.01998303373406289</v>
+        <v>0.04161403678530363</v>
       </c>
       <c r="D35">
-        <v>0.006951408064589607</v>
+        <v>0.02161262922897574</v>
       </c>
       <c r="E35">
-        <v>0.01316520977429219</v>
+        <v>0.01486592835922542</v>
       </c>
       <c r="F35">
-        <v>-0.007851051164799642</v>
+        <v>0.001138709522294743</v>
       </c>
       <c r="G35">
-        <v>-0.0252875606286327</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.04555828046697395</v>
+      </c>
+      <c r="H35">
+        <v>0.1499548893858036</v>
+      </c>
+      <c r="I35">
+        <v>-0.008316960508464245</v>
+      </c>
+      <c r="J35">
+        <v>0.08961629548494399</v>
+      </c>
+      <c r="K35">
+        <v>0.1040157628935702</v>
+      </c>
+      <c r="L35">
+        <v>-0.1710965070330411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.005024992817507925</v>
+        <v>0.01564016310055458</v>
       </c>
       <c r="C36">
-        <v>-0.05309711214025577</v>
+        <v>0.05007784385003164</v>
       </c>
       <c r="D36">
-        <v>0.05003043574166774</v>
+        <v>0.04884257253325677</v>
       </c>
       <c r="E36">
-        <v>0.01084049408699378</v>
+        <v>0.003007497584619547</v>
       </c>
       <c r="F36">
-        <v>0.002357956346759664</v>
+        <v>0.001037109733781616</v>
       </c>
       <c r="G36">
-        <v>-0.01908277874306541</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.003002185144685901</v>
+      </c>
+      <c r="H36">
+        <v>0.07330589163852121</v>
+      </c>
+      <c r="I36">
+        <v>-0.01696963959894092</v>
+      </c>
+      <c r="J36">
+        <v>-0.04268822523959987</v>
+      </c>
+      <c r="K36">
+        <v>-0.008084282145336855</v>
+      </c>
+      <c r="L36">
+        <v>0.05556518331798298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.03002987909773615</v>
+        <v>0.01276303110472308</v>
       </c>
       <c r="C38">
-        <v>-0.06181845744750285</v>
+        <v>0.0646057242394847</v>
       </c>
       <c r="D38">
-        <v>0.0423718056517652</v>
+        <v>0.04127970905747456</v>
       </c>
       <c r="E38">
-        <v>-0.001295822523562166</v>
+        <v>-0.02615210931412135</v>
       </c>
       <c r="F38">
-        <v>-0.00899367524430513</v>
+        <v>0.01646540476172892</v>
       </c>
       <c r="G38">
-        <v>-0.007611560363396201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.007979523478960629</v>
+      </c>
+      <c r="H38">
+        <v>0.08263411646256533</v>
+      </c>
+      <c r="I38">
+        <v>0.05648956055968879</v>
+      </c>
+      <c r="J38">
+        <v>0.02834446858681026</v>
+      </c>
+      <c r="K38">
+        <v>0.03046494336353633</v>
+      </c>
+      <c r="L38">
+        <v>0.1063773970282309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>9.872971021385203e-06</v>
+        <v>0.01656467999964267</v>
       </c>
       <c r="C39">
-        <v>-0.1330691197845678</v>
+        <v>0.1280750292095648</v>
       </c>
       <c r="D39">
-        <v>0.03853744670371428</v>
+        <v>0.05431282967997993</v>
       </c>
       <c r="E39">
-        <v>0.01961250144499862</v>
+        <v>0.003452553274488629</v>
       </c>
       <c r="F39">
-        <v>-0.03606996351971641</v>
+        <v>0.0009052109840881509</v>
       </c>
       <c r="G39">
-        <v>-0.07097383717427733</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.03973189791792207</v>
+      </c>
+      <c r="H39">
+        <v>0.04867208635547591</v>
+      </c>
+      <c r="I39">
+        <v>-0.07010697940372175</v>
+      </c>
+      <c r="J39">
+        <v>-0.002063395822976076</v>
+      </c>
+      <c r="K39">
+        <v>-0.02194622269804564</v>
+      </c>
+      <c r="L39">
+        <v>0.07898688137126011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.005503028027338691</v>
+        <v>0.01308672911295253</v>
       </c>
       <c r="C40">
-        <v>-0.03106033636792994</v>
+        <v>0.0610290537318706</v>
       </c>
       <c r="D40">
-        <v>0.02991744213682673</v>
+        <v>0.03716442049321564</v>
       </c>
       <c r="E40">
-        <v>0.1317528643318332</v>
+        <v>0.03963999422618038</v>
       </c>
       <c r="F40">
-        <v>-0.03720307152205934</v>
+        <v>0.03380205963213709</v>
       </c>
       <c r="G40">
-        <v>-0.07781485853862678</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1456157024078579</v>
+      </c>
+      <c r="H40">
+        <v>0.03945157751742367</v>
+      </c>
+      <c r="I40">
+        <v>0.00712983798586818</v>
+      </c>
+      <c r="J40">
+        <v>0.1285135856179796</v>
+      </c>
+      <c r="K40">
+        <v>0.2382411949705681</v>
+      </c>
+      <c r="L40">
+        <v>0.04375736348107198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.007982068273780141</v>
+        <v>0.02101494700494937</v>
       </c>
       <c r="C41">
-        <v>-0.02020005694313897</v>
+        <v>0.04692159109594861</v>
       </c>
       <c r="D41">
-        <v>0.006237521207736072</v>
+        <v>0.01690365154336407</v>
       </c>
       <c r="E41">
-        <v>-0.02537152931517643</v>
+        <v>-0.01100012374178892</v>
       </c>
       <c r="F41">
-        <v>0.02779969110714318</v>
+        <v>-0.02470874501586934</v>
       </c>
       <c r="G41">
-        <v>0.03097234318213025</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01066934243779174</v>
+      </c>
+      <c r="H41">
+        <v>0.02525421681496749</v>
+      </c>
+      <c r="I41">
+        <v>0.02732870279949198</v>
+      </c>
+      <c r="J41">
+        <v>0.03519989160032159</v>
+      </c>
+      <c r="K41">
+        <v>0.04118536166047542</v>
+      </c>
+      <c r="L41">
+        <v>0.01131851288689062</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.001427561691449406</v>
+        <v>0.01787678006637872</v>
       </c>
       <c r="C43">
-        <v>-0.02050134615099692</v>
+        <v>0.04428499269010398</v>
       </c>
       <c r="D43">
-        <v>0.0120228286755815</v>
+        <v>0.02980825123613565</v>
       </c>
       <c r="E43">
-        <v>-0.007259261354862098</v>
+        <v>-0.01490976454201501</v>
       </c>
       <c r="F43">
-        <v>-0.003040141323590119</v>
+        <v>-0.006959497734541049</v>
       </c>
       <c r="G43">
-        <v>0.003881588599175295</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.003028286241129237</v>
+      </c>
+      <c r="H43">
+        <v>0.04433568337190746</v>
+      </c>
+      <c r="I43">
+        <v>0.0001690394111631924</v>
+      </c>
+      <c r="J43">
+        <v>0.03532446349793247</v>
+      </c>
+      <c r="K43">
+        <v>0.02500499244062237</v>
+      </c>
+      <c r="L43">
+        <v>0.01445857620591413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.02292806369780429</v>
+        <v>0.01338956995119898</v>
       </c>
       <c r="C44">
-        <v>-0.09911237734022901</v>
+        <v>0.09772872715828936</v>
       </c>
       <c r="D44">
-        <v>0.02239047596516385</v>
+        <v>0.05734508504437274</v>
       </c>
       <c r="E44">
-        <v>0.05858794977743813</v>
+        <v>-0.00183452942060631</v>
       </c>
       <c r="F44">
-        <v>-0.05248301899384188</v>
+        <v>0.06576868843292807</v>
       </c>
       <c r="G44">
-        <v>-0.01853975611045961</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03957004258148458</v>
+      </c>
+      <c r="H44">
+        <v>0.05146789285142751</v>
+      </c>
+      <c r="I44">
+        <v>-0.05628000046729034</v>
+      </c>
+      <c r="J44">
+        <v>-0.04105434333764981</v>
+      </c>
+      <c r="K44">
+        <v>-0.06177984006150639</v>
+      </c>
+      <c r="L44">
+        <v>-0.008963271725690398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2410,253 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.007458599801496092</v>
+        <v>0.003749460940609778</v>
       </c>
       <c r="C46">
-        <v>-0.07349231324043277</v>
+        <v>0.06553210232699914</v>
       </c>
       <c r="D46">
-        <v>0.04426709808584185</v>
+        <v>0.03104521395555778</v>
       </c>
       <c r="E46">
-        <v>0.03122483116691693</v>
+        <v>0.008020471233715709</v>
       </c>
       <c r="F46">
-        <v>-0.01313610144246746</v>
+        <v>-0.01552160249206857</v>
       </c>
       <c r="G46">
-        <v>-0.0577629936186394</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.03543104973692417</v>
+      </c>
+      <c r="H46">
+        <v>0.1043295120497666</v>
+      </c>
+      <c r="I46">
+        <v>-0.01037871995069913</v>
+      </c>
+      <c r="J46">
+        <v>0.06198649295746375</v>
+      </c>
+      <c r="K46">
+        <v>0.04401823940508275</v>
+      </c>
+      <c r="L46">
+        <v>-0.04991196314243053</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.008733142476001222</v>
+        <v>0.0238566275714267</v>
       </c>
       <c r="C47">
-        <v>-0.08867820039441013</v>
+        <v>0.08430932740298724</v>
       </c>
       <c r="D47">
-        <v>0.04378248362882929</v>
+        <v>0.04557314584120355</v>
       </c>
       <c r="E47">
-        <v>-0.02098087381655267</v>
+        <v>0.002230696898614699</v>
       </c>
       <c r="F47">
-        <v>0.02446142446664357</v>
+        <v>-0.02090750929173087</v>
       </c>
       <c r="G47">
-        <v>-0.05607062612171289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.005427228666507248</v>
+      </c>
+      <c r="H47">
+        <v>0.07115217930111103</v>
+      </c>
+      <c r="I47">
+        <v>0.0239187862422912</v>
+      </c>
+      <c r="J47">
+        <v>0.02491895787613371</v>
+      </c>
+      <c r="K47">
+        <v>0.03040367192446657</v>
+      </c>
+      <c r="L47">
+        <v>0.04371935433758874</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.01200008798453266</v>
+        <v>0.02161323921280899</v>
       </c>
       <c r="C48">
-        <v>-0.05531780502546988</v>
+        <v>0.05234012357595291</v>
       </c>
       <c r="D48">
-        <v>0.06020533066545958</v>
+        <v>0.05565709737407374</v>
       </c>
       <c r="E48">
-        <v>0.0105408831079994</v>
+        <v>-0.006060773935805142</v>
       </c>
       <c r="F48">
-        <v>-0.005967774432190484</v>
+        <v>-0.003004612164714912</v>
       </c>
       <c r="G48">
-        <v>-0.02312901660515271</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.002022107083876449</v>
+      </c>
+      <c r="H48">
+        <v>0.09990668398978414</v>
+      </c>
+      <c r="I48">
+        <v>-0.03349868638103318</v>
+      </c>
+      <c r="J48">
+        <v>-0.09125559173313368</v>
+      </c>
+      <c r="K48">
+        <v>-0.02916223591060205</v>
+      </c>
+      <c r="L48">
+        <v>0.06353752726971615</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.007784863524971134</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.02733355927492391</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.000637107717345614</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.02027172964391362</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.02968925368977703</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.0310209993735283</v>
+      </c>
+      <c r="H49">
+        <v>-0.02252289057173361</v>
+      </c>
+      <c r="I49">
+        <v>-0.05001160956835679</v>
+      </c>
+      <c r="J49">
+        <v>-0.04543156929757323</v>
+      </c>
+      <c r="K49">
+        <v>0.004902545982691204</v>
+      </c>
+      <c r="L49">
+        <v>0.002693958117065587</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.002955610659077325</v>
+        <v>0.01346881733473877</v>
       </c>
       <c r="C50">
-        <v>-0.07714961780655642</v>
+        <v>0.08094401565838756</v>
       </c>
       <c r="D50">
-        <v>0.02929248202271314</v>
+        <v>0.02881284046329778</v>
       </c>
       <c r="E50">
-        <v>0.001350409007603941</v>
+        <v>-0.001481750279811104</v>
       </c>
       <c r="F50">
-        <v>-0.006740615490014139</v>
+        <v>0.001751381719855015</v>
       </c>
       <c r="G50">
-        <v>-0.007019502233211439</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01465454159496776</v>
+      </c>
+      <c r="H50">
+        <v>0.05701193317046917</v>
+      </c>
+      <c r="I50">
+        <v>0.03708525058689265</v>
+      </c>
+      <c r="J50">
+        <v>0.01285205518527044</v>
+      </c>
+      <c r="K50">
+        <v>0.02657032856151502</v>
+      </c>
+      <c r="L50">
+        <v>0.01987002599588644</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.0009949912062455469</v>
+        <v>-0.007582554002400849</v>
       </c>
       <c r="C51">
-        <v>-0.07765076628773306</v>
+        <v>0.03903772467219165</v>
       </c>
       <c r="D51">
-        <v>0.003324790665709316</v>
+        <v>0.02261589446639587</v>
       </c>
       <c r="E51">
-        <v>0.07850932763846562</v>
+        <v>0.01861614274249402</v>
       </c>
       <c r="F51">
-        <v>-0.04558471612708204</v>
+        <v>0.02756074071985391</v>
       </c>
       <c r="G51">
-        <v>-0.01479376525410489</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02908106116824846</v>
+      </c>
+      <c r="H51">
+        <v>0.0940477846225117</v>
+      </c>
+      <c r="I51">
+        <v>-0.0154634193856242</v>
+      </c>
+      <c r="J51">
+        <v>-0.09538105990249215</v>
+      </c>
+      <c r="K51">
+        <v>-0.07040617012438087</v>
+      </c>
+      <c r="L51">
+        <v>-0.01483203810488628</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2676,177 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.04174516117642622</v>
+        <v>0.05806482735976901</v>
       </c>
       <c r="C53">
-        <v>-0.1335638186069379</v>
+        <v>0.1319691939989537</v>
       </c>
       <c r="D53">
-        <v>0.0660831661480672</v>
+        <v>0.05622912406713285</v>
       </c>
       <c r="E53">
-        <v>-0.1302945766795929</v>
+        <v>-0.01247289109186481</v>
       </c>
       <c r="F53">
-        <v>0.0333974132842101</v>
+        <v>-0.07010624244010462</v>
       </c>
       <c r="G53">
-        <v>0.02172024767922059</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.08303942695194516</v>
+      </c>
+      <c r="H53">
+        <v>-0.02899304477199541</v>
+      </c>
+      <c r="I53">
+        <v>0.04520734086683443</v>
+      </c>
+      <c r="J53">
+        <v>-0.005084161166443025</v>
+      </c>
+      <c r="K53">
+        <v>0.03196095731747619</v>
+      </c>
+      <c r="L53">
+        <v>0.1056703299273638</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.008266007583687618</v>
+        <v>0.01822139847063443</v>
       </c>
       <c r="C54">
-        <v>-0.07045735067136438</v>
+        <v>0.07633979307464671</v>
       </c>
       <c r="D54">
-        <v>0.00945199768961686</v>
+        <v>0.01137948286438805</v>
       </c>
       <c r="E54">
-        <v>-0.01691031515589763</v>
+        <v>0.001478238861754196</v>
       </c>
       <c r="F54">
-        <v>-0.01028601083246948</v>
+        <v>-0.0209135509680857</v>
       </c>
       <c r="G54">
-        <v>-0.03171840820570385</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02079139024117073</v>
+      </c>
+      <c r="H54">
+        <v>0.05611011961380821</v>
+      </c>
+      <c r="I54">
+        <v>-0.0308042949323675</v>
+      </c>
+      <c r="J54">
+        <v>-0.002865054334005965</v>
+      </c>
+      <c r="K54">
+        <v>0.01488688638390205</v>
+      </c>
+      <c r="L54">
+        <v>-0.01237844720745277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.02461841361997403</v>
+        <v>0.03338178125288985</v>
       </c>
       <c r="C55">
-        <v>-0.09815711164313905</v>
+        <v>0.08943517136629971</v>
       </c>
       <c r="D55">
-        <v>0.06620469518482391</v>
+        <v>0.05432740866912551</v>
       </c>
       <c r="E55">
-        <v>-0.06293172873559723</v>
+        <v>-0.01523755029855984</v>
       </c>
       <c r="F55">
-        <v>0.03645296580060134</v>
+        <v>-0.0517099408367164</v>
       </c>
       <c r="G55">
-        <v>-0.01153736005452453</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.04290804012577414</v>
+      </c>
+      <c r="H55">
+        <v>-0.01610660789755737</v>
+      </c>
+      <c r="I55">
+        <v>-0.01117280054986611</v>
+      </c>
+      <c r="J55">
+        <v>-0.008044542438215674</v>
+      </c>
+      <c r="K55">
+        <v>0.01842882048674786</v>
+      </c>
+      <c r="L55">
+        <v>0.05886358215150836</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.02975834953837242</v>
+        <v>0.04628501759656369</v>
       </c>
       <c r="C56">
-        <v>-0.1732047903749187</v>
+        <v>0.1542749897489879</v>
       </c>
       <c r="D56">
-        <v>0.06139958574548797</v>
+        <v>0.07830736018440869</v>
       </c>
       <c r="E56">
-        <v>-0.1330045241853499</v>
+        <v>0.002726851786561479</v>
       </c>
       <c r="F56">
-        <v>0.08455799491021516</v>
+        <v>-0.09833885143717236</v>
       </c>
       <c r="G56">
-        <v>0.051813961133554</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1556099525071933</v>
+      </c>
+      <c r="H56">
+        <v>-0.04632987985071282</v>
+      </c>
+      <c r="I56">
+        <v>0.02399970489072302</v>
+      </c>
+      <c r="J56">
+        <v>-0.04141963795169914</v>
+      </c>
+      <c r="K56">
+        <v>0.01011651413479078</v>
+      </c>
+      <c r="L56">
+        <v>0.05734279987118734</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2866,481 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.02401804814025499</v>
+        <v>0.01914097389783604</v>
       </c>
       <c r="C58">
-        <v>-0.2694890323203776</v>
+        <v>0.1774407178483804</v>
       </c>
       <c r="D58">
-        <v>-0.07637849323403399</v>
+        <v>0.0358330883906887</v>
       </c>
       <c r="E58">
-        <v>0.2587598690225635</v>
+        <v>0.05299925064841921</v>
       </c>
       <c r="F58">
-        <v>-0.2319586846504693</v>
+        <v>0.3214594825110851</v>
       </c>
       <c r="G58">
-        <v>0.261218728347084</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.06059822509171536</v>
+      </c>
+      <c r="H58">
+        <v>0.03897713513921125</v>
+      </c>
+      <c r="I58">
+        <v>0.04001023552618281</v>
+      </c>
+      <c r="J58">
+        <v>-0.2073281279925651</v>
+      </c>
+      <c r="K58">
+        <v>-0.4025351884652163</v>
+      </c>
+      <c r="L58">
+        <v>-0.1995269856617889</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.2778384327762894</v>
+        <v>0.2880587713334368</v>
       </c>
       <c r="C59">
-        <v>0.002944706839383902</v>
+        <v>-0.04253353148600057</v>
       </c>
       <c r="D59">
-        <v>-0.04225340823240483</v>
+        <v>-0.007738286532445575</v>
       </c>
       <c r="E59">
-        <v>0.0445607239961656</v>
+        <v>0.03720360088307145</v>
       </c>
       <c r="F59">
-        <v>0.04664000760012459</v>
+        <v>0.03622223655358552</v>
       </c>
       <c r="G59">
-        <v>-0.02730680410839796</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.003536133273894869</v>
+      </c>
+      <c r="H59">
+        <v>-0.02221574524757229</v>
+      </c>
+      <c r="I59">
+        <v>0.02347032189939913</v>
+      </c>
+      <c r="J59">
+        <v>0.00856377926796332</v>
+      </c>
+      <c r="K59">
+        <v>0.02208551514508207</v>
+      </c>
+      <c r="L59">
+        <v>0.0181926239912188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.1150246521662903</v>
+        <v>0.1488437285629563</v>
       </c>
       <c r="C60">
-        <v>-0.1504086363407184</v>
+        <v>0.1570349087674003</v>
       </c>
       <c r="D60">
-        <v>0.06837291856049889</v>
+        <v>0.04433505847772932</v>
       </c>
       <c r="E60">
-        <v>-0.068352963352326</v>
+        <v>0.0027150782930231</v>
       </c>
       <c r="F60">
-        <v>-0.01357775412428835</v>
+        <v>-0.1232657027357919</v>
       </c>
       <c r="G60">
-        <v>-0.3002653158510061</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2569168769939528</v>
+      </c>
+      <c r="H60">
+        <v>-0.2274844047358312</v>
+      </c>
+      <c r="I60">
+        <v>-0.01644804807469864</v>
+      </c>
+      <c r="J60">
+        <v>0.008798752444023037</v>
+      </c>
+      <c r="K60">
+        <v>-0.02510541594234416</v>
+      </c>
+      <c r="L60">
+        <v>-0.1103631550597914</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.0007820203384994186</v>
+        <v>0.01952686244240102</v>
       </c>
       <c r="C61">
-        <v>-0.08850877386189154</v>
+        <v>0.09704559432767286</v>
       </c>
       <c r="D61">
-        <v>0.04965396771386126</v>
+        <v>0.05112162609534882</v>
       </c>
       <c r="E61">
-        <v>-0.01833434799923522</v>
+        <v>-0.0007489190889984877</v>
       </c>
       <c r="F61">
-        <v>-0.009742289557410367</v>
+        <v>-0.03105608066358679</v>
       </c>
       <c r="G61">
-        <v>-0.07516429487483267</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.0236455823644427</v>
+      </c>
+      <c r="H61">
+        <v>0.06295649735358687</v>
+      </c>
+      <c r="I61">
+        <v>-0.03416645857748295</v>
+      </c>
+      <c r="J61">
+        <v>-0.003750311398836912</v>
+      </c>
+      <c r="K61">
+        <v>0.03315470669227413</v>
+      </c>
+      <c r="L61">
+        <v>0.04774092422453605</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002046846426654381</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0131463943504506</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003678626706338477</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.002636571394977737</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.01521392149881184</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.0148198957496974</v>
+      </c>
+      <c r="H62">
+        <v>0.006558918781652903</v>
+      </c>
+      <c r="I62">
+        <v>-0.002419511246097432</v>
+      </c>
+      <c r="J62">
+        <v>-0.04404761217586819</v>
+      </c>
+      <c r="K62">
+        <v>0.04803990180201412</v>
+      </c>
+      <c r="L62">
+        <v>-0.07059354349359702</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.004321788980946573</v>
+        <v>0.02596930612122937</v>
       </c>
       <c r="C63">
-        <v>-0.07365463571356129</v>
+        <v>0.07163130592799562</v>
       </c>
       <c r="D63">
-        <v>0.03861471310511051</v>
+        <v>0.05950845012456997</v>
       </c>
       <c r="E63">
-        <v>-0.02083845246014723</v>
+        <v>0.002491360104178962</v>
       </c>
       <c r="F63">
-        <v>-0.01280378322067719</v>
+        <v>-0.02104497102701421</v>
       </c>
       <c r="G63">
-        <v>-0.03146528660895406</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.004290109213279045</v>
+      </c>
+      <c r="H63">
+        <v>0.06391251764950065</v>
+      </c>
+      <c r="I63">
+        <v>-0.0199948635609315</v>
+      </c>
+      <c r="J63">
+        <v>-0.02597297582660864</v>
+      </c>
+      <c r="K63">
+        <v>0.04370932148201285</v>
+      </c>
+      <c r="L63">
+        <v>0.04584175550692787</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.007384050433847447</v>
+        <v>0.01533835990531177</v>
       </c>
       <c r="C64">
-        <v>-0.07829449725447442</v>
+        <v>0.08799132273385581</v>
       </c>
       <c r="D64">
-        <v>0.06389129831497499</v>
+        <v>0.03275127888465766</v>
       </c>
       <c r="E64">
-        <v>0.02067766676571177</v>
+        <v>-0.02414659049171025</v>
       </c>
       <c r="F64">
-        <v>-0.03345030551179921</v>
+        <v>0.0392494879343506</v>
       </c>
       <c r="G64">
-        <v>-0.05987668264101603</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06939167499577549</v>
+      </c>
+      <c r="H64">
+        <v>0.04779673562282434</v>
+      </c>
+      <c r="I64">
+        <v>-0.03707633829073214</v>
+      </c>
+      <c r="J64">
+        <v>-0.01875771491853803</v>
+      </c>
+      <c r="K64">
+        <v>0.05373393079711121</v>
+      </c>
+      <c r="L64">
+        <v>0.1193088365808928</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.01458539209527227</v>
+        <v>0.0302148634338133</v>
       </c>
       <c r="C65">
-        <v>-0.07360597066407966</v>
+        <v>0.0933134486443009</v>
       </c>
       <c r="D65">
-        <v>0.02696920752726387</v>
+        <v>0.01799980956916626</v>
       </c>
       <c r="E65">
-        <v>0.027852705414391</v>
+        <v>-0.02551792018654233</v>
       </c>
       <c r="F65">
-        <v>-0.03373630497044669</v>
+        <v>0.009269216573272489</v>
       </c>
       <c r="G65">
-        <v>-0.01744419967679248</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.09717738405990041</v>
+      </c>
+      <c r="H65">
+        <v>0.0002624460916666529</v>
+      </c>
+      <c r="I65">
+        <v>-0.07169051639473041</v>
+      </c>
+      <c r="J65">
+        <v>-0.01466468069372924</v>
+      </c>
+      <c r="K65">
+        <v>-0.0957052509374676</v>
+      </c>
+      <c r="L65">
+        <v>0.03952880257250294</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.0006870645318487751</v>
+        <v>0.01203407223652098</v>
       </c>
       <c r="C66">
-        <v>-0.1701675624715176</v>
+        <v>0.1639650692380095</v>
       </c>
       <c r="D66">
-        <v>0.02219385269900094</v>
+        <v>0.04633583884240403</v>
       </c>
       <c r="E66">
-        <v>0.05895747957175574</v>
+        <v>0.01732329696469049</v>
       </c>
       <c r="F66">
-        <v>-0.02746259539075633</v>
+        <v>0.007966345035157661</v>
       </c>
       <c r="G66">
-        <v>-0.08758045416717508</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.02354304837118633</v>
+      </c>
+      <c r="H66">
+        <v>0.0606256750800327</v>
+      </c>
+      <c r="I66">
+        <v>-0.05422711083523091</v>
+      </c>
+      <c r="J66">
+        <v>-0.02311618877647411</v>
+      </c>
+      <c r="K66">
+        <v>-0.00194747201072489</v>
+      </c>
+      <c r="L66">
+        <v>0.04521856104872098</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.02834108025029695</v>
+        <v>0.02109869610276431</v>
       </c>
       <c r="C67">
-        <v>-0.04026498366129139</v>
+        <v>0.05412062352771446</v>
       </c>
       <c r="D67">
-        <v>0.06197668476848615</v>
+        <v>0.04268022209279265</v>
       </c>
       <c r="E67">
-        <v>-0.03746721604422842</v>
+        <v>-0.03260696018642047</v>
       </c>
       <c r="F67">
-        <v>-0.002604044798461898</v>
+        <v>-0.01823800973337834</v>
       </c>
       <c r="G67">
-        <v>-0.02064281263485047</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01680641923635569</v>
+      </c>
+      <c r="H67">
+        <v>0.0586271240739534</v>
+      </c>
+      <c r="I67">
+        <v>0.05178648547647453</v>
+      </c>
+      <c r="J67">
+        <v>0.05798359050297004</v>
+      </c>
+      <c r="K67">
+        <v>0.02778511597548045</v>
+      </c>
+      <c r="L67">
+        <v>0.09667004760506138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.2895834342461286</v>
+        <v>0.294954079645817</v>
       </c>
       <c r="C68">
-        <v>0.03647679971910063</v>
+        <v>-0.0681509357466879</v>
       </c>
       <c r="D68">
-        <v>-0.03374650725918441</v>
+        <v>-0.02749449499944088</v>
       </c>
       <c r="E68">
-        <v>0.03032167428423638</v>
+        <v>0.0142802128150112</v>
       </c>
       <c r="F68">
-        <v>-0.003936973452955759</v>
+        <v>0.03064976905881798</v>
       </c>
       <c r="G68">
-        <v>0.01577225307811458</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.0198067510594201</v>
+      </c>
+      <c r="H68">
+        <v>0.02524035603449774</v>
+      </c>
+      <c r="I68">
+        <v>0.0331222353934985</v>
+      </c>
+      <c r="J68">
+        <v>-0.05660758229566834</v>
+      </c>
+      <c r="K68">
+        <v>0.04253644288861892</v>
+      </c>
+      <c r="L68">
+        <v>-0.02284436843390164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.009293379391852272</v>
+        <v>0.007008131772788712</v>
       </c>
       <c r="C69">
-        <v>-0.05967012838569287</v>
+        <v>0.05321269886955568</v>
       </c>
       <c r="D69">
-        <v>0.04494972823610799</v>
+        <v>0.02306879142645981</v>
       </c>
       <c r="E69">
-        <v>-0.01329698769525883</v>
+        <v>0.0008266795159289406</v>
       </c>
       <c r="F69">
-        <v>-0.004751569013332181</v>
+        <v>-0.01084956427207201</v>
       </c>
       <c r="G69">
-        <v>-0.01959687601676722</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02442772673416323</v>
+      </c>
+      <c r="H69">
+        <v>0.04967695781833494</v>
+      </c>
+      <c r="I69">
+        <v>0.01536901059499999</v>
+      </c>
+      <c r="J69">
+        <v>0.002298748322761498</v>
+      </c>
+      <c r="K69">
+        <v>0.01454428557079008</v>
+      </c>
+      <c r="L69">
+        <v>0.03570120987641877</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3360,975 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.2815585544387154</v>
+        <v>0.2768389556411965</v>
       </c>
       <c r="C71">
-        <v>0.04856249441850436</v>
+        <v>-0.0749279321885802</v>
       </c>
       <c r="D71">
-        <v>-0.03696805854016116</v>
+        <v>-0.02486574182061628</v>
       </c>
       <c r="E71">
-        <v>0.02591649178787842</v>
+        <v>-0.0005243184520494316</v>
       </c>
       <c r="F71">
-        <v>-0.02737000814109685</v>
+        <v>0.06067856639557197</v>
       </c>
       <c r="G71">
-        <v>0.005360106176328657</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02310523675160372</v>
+      </c>
+      <c r="H71">
+        <v>0.05293424190528184</v>
+      </c>
+      <c r="I71">
+        <v>0.1218100842050476</v>
+      </c>
+      <c r="J71">
+        <v>-0.06139736555186351</v>
+      </c>
+      <c r="K71">
+        <v>0.009325566169433702</v>
+      </c>
+      <c r="L71">
+        <v>0.03679837418610533</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.03284431347812794</v>
+        <v>0.05403908462236864</v>
       </c>
       <c r="C72">
-        <v>-0.1455534395685135</v>
+        <v>0.1401573389577871</v>
       </c>
       <c r="D72">
-        <v>0.06008935917587074</v>
+        <v>0.04378206707980556</v>
       </c>
       <c r="E72">
-        <v>0.02323348814971807</v>
+        <v>-0.009271881695150492</v>
       </c>
       <c r="F72">
-        <v>-0.1105640512844654</v>
+        <v>-0.02847714977333583</v>
       </c>
       <c r="G72">
-        <v>-0.08759142091417924</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02805852569871334</v>
+      </c>
+      <c r="H72">
+        <v>0.02465198502389279</v>
+      </c>
+      <c r="I72">
+        <v>-0.1142078942456963</v>
+      </c>
+      <c r="J72">
+        <v>-0.01039143733997912</v>
+      </c>
+      <c r="K72">
+        <v>-0.06825823803416996</v>
+      </c>
+      <c r="L72">
+        <v>0.05610257038749578</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.07140554802850559</v>
+        <v>0.1502307784546432</v>
       </c>
       <c r="C73">
-        <v>-0.1290373039809897</v>
+        <v>0.1958707494567969</v>
       </c>
       <c r="D73">
-        <v>0.1055431458941422</v>
+        <v>0.07960133418272905</v>
       </c>
       <c r="E73">
-        <v>-0.1362224412212228</v>
+        <v>-0.05157277563215561</v>
       </c>
       <c r="F73">
-        <v>-0.05637275462152951</v>
+        <v>-0.2328534518256084</v>
       </c>
       <c r="G73">
-        <v>-0.3996215934080692</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3916833609181692</v>
+      </c>
+      <c r="H73">
+        <v>-0.2990634747508764</v>
+      </c>
+      <c r="I73">
+        <v>0.08581288798896428</v>
+      </c>
+      <c r="J73">
+        <v>-0.007825838361162801</v>
+      </c>
+      <c r="K73">
+        <v>-0.08910647081042382</v>
+      </c>
+      <c r="L73">
+        <v>-0.008026612299757846</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.01750878341453837</v>
+        <v>0.04046213028395983</v>
       </c>
       <c r="C74">
-        <v>-0.09906644379235878</v>
+        <v>0.1040554923497675</v>
       </c>
       <c r="D74">
-        <v>0.07050625219482731</v>
+        <v>0.04632325331677643</v>
       </c>
       <c r="E74">
-        <v>-0.07935631262038181</v>
+        <v>-0.01488759714624568</v>
       </c>
       <c r="F74">
-        <v>0.04895449441188215</v>
+        <v>-0.04408855142425146</v>
       </c>
       <c r="G74">
-        <v>0.01251625534302677</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.04952305972090726</v>
+      </c>
+      <c r="H74">
+        <v>-0.002390529869438805</v>
+      </c>
+      <c r="I74">
+        <v>-0.01114649260942482</v>
+      </c>
+      <c r="J74">
+        <v>-0.0653014235438332</v>
+      </c>
+      <c r="K74">
+        <v>0.02966488296997846</v>
+      </c>
+      <c r="L74">
+        <v>0.04615872131581317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.06312570680634375</v>
+        <v>0.06409917272836507</v>
       </c>
       <c r="C75">
-        <v>-0.1480576311171</v>
+        <v>0.1657679354418599</v>
       </c>
       <c r="D75">
-        <v>0.09369378463098611</v>
+        <v>0.08383081877526863</v>
       </c>
       <c r="E75">
-        <v>-0.1976596381701158</v>
+        <v>-0.07995930157659409</v>
       </c>
       <c r="F75">
-        <v>0.07827073186820795</v>
+        <v>-0.1073289844344985</v>
       </c>
       <c r="G75">
-        <v>0.1434503284281804</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.2259573231263745</v>
+      </c>
+      <c r="H75">
+        <v>-0.03655427273608795</v>
+      </c>
+      <c r="I75">
+        <v>0.1236619420122596</v>
+      </c>
+      <c r="J75">
+        <v>-0.001377300501259792</v>
+      </c>
+      <c r="K75">
+        <v>0.09957917733908683</v>
+      </c>
+      <c r="L75">
+        <v>0.06978488521048827</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.02773704026469566</v>
+        <v>0.04323949036672157</v>
       </c>
       <c r="C76">
-        <v>-0.1173205261374937</v>
+        <v>0.1247577148270427</v>
       </c>
       <c r="D76">
-        <v>0.06611002178069249</v>
+        <v>0.07295051689255434</v>
       </c>
       <c r="E76">
-        <v>-0.1012430943673022</v>
+        <v>-0.02358630567786596</v>
       </c>
       <c r="F76">
-        <v>0.07288181131811608</v>
+        <v>-0.08126564526165249</v>
       </c>
       <c r="G76">
-        <v>0.001208492126783895</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.08082009797985013</v>
+      </c>
+      <c r="H76">
+        <v>-0.01604405433871214</v>
+      </c>
+      <c r="I76">
+        <v>-0.008404911366533603</v>
+      </c>
+      <c r="J76">
+        <v>-0.0385218152427338</v>
+      </c>
+      <c r="K76">
+        <v>0.07963351895279162</v>
+      </c>
+      <c r="L76">
+        <v>0.1126610498403559</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.06551438517423687</v>
+        <v>0.04533108604284054</v>
       </c>
       <c r="C77">
-        <v>-0.31201183701079</v>
+        <v>0.3891606532292941</v>
       </c>
       <c r="D77">
-        <v>-0.8493855744725143</v>
+        <v>-0.9043045044866558</v>
       </c>
       <c r="E77">
-        <v>-0.3253646753485441</v>
+        <v>-0.06489371178317628</v>
       </c>
       <c r="F77">
-        <v>-0.03103717469426309</v>
+        <v>-0.07031150303357826</v>
       </c>
       <c r="G77">
-        <v>-0.04998606155533954</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03390469535632111</v>
+      </c>
+      <c r="H77">
+        <v>0.05657868931928358</v>
+      </c>
+      <c r="I77">
+        <v>-0.001019537571440225</v>
+      </c>
+      <c r="J77">
+        <v>-0.02120593560995822</v>
+      </c>
+      <c r="K77">
+        <v>0.02065390376600031</v>
+      </c>
+      <c r="L77">
+        <v>-0.01095769071956819</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.0316075133798126</v>
+        <v>0.03390012822784285</v>
       </c>
       <c r="C78">
-        <v>-0.1447444229907536</v>
+        <v>0.1143605885087252</v>
       </c>
       <c r="D78">
-        <v>0.09776308694626397</v>
+        <v>0.09788644338732438</v>
       </c>
       <c r="E78">
-        <v>0.07690034113380517</v>
+        <v>0.04642624085093926</v>
       </c>
       <c r="F78">
-        <v>0.0976731011391422</v>
+        <v>-0.003858871663938762</v>
       </c>
       <c r="G78">
-        <v>0.01761518184828899</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1136063219905187</v>
+      </c>
+      <c r="H78">
+        <v>0.05319125601722571</v>
+      </c>
+      <c r="I78">
+        <v>-0.0684222315679532</v>
+      </c>
+      <c r="J78">
+        <v>-0.2729576170877063</v>
+      </c>
+      <c r="K78">
+        <v>-0.3185836938859176</v>
+      </c>
+      <c r="L78">
+        <v>-0.01836162258405063</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.03317964194121616</v>
+        <v>0.05591335347767706</v>
       </c>
       <c r="C79">
-        <v>-0.175417796373579</v>
+        <v>0.142432991228866</v>
       </c>
       <c r="D79">
-        <v>0.117648757266853</v>
+        <v>0.06708624589471381</v>
       </c>
       <c r="E79">
-        <v>-0.132484967918999</v>
+        <v>-0.003390697642044778</v>
       </c>
       <c r="F79">
-        <v>0.1369228830181097</v>
+        <v>-0.07149534861229187</v>
       </c>
       <c r="G79">
-        <v>0.1363178854692562</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2353744528643541</v>
+      </c>
+      <c r="H79">
+        <v>-0.008948972426935596</v>
+      </c>
+      <c r="I79">
+        <v>0.07369912807338844</v>
+      </c>
+      <c r="J79">
+        <v>-0.09453627635429417</v>
+      </c>
+      <c r="K79">
+        <v>-0.00277481514040486</v>
+      </c>
+      <c r="L79">
+        <v>0.04118152126540653</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.01230923923564113</v>
+        <v>0.02045931455217503</v>
       </c>
       <c r="C80">
-        <v>-0.0520324065076467</v>
+        <v>0.05174179880777453</v>
       </c>
       <c r="D80">
-        <v>0.05316290081736209</v>
+        <v>0.03930395442493397</v>
       </c>
       <c r="E80">
-        <v>-0.005763580533928207</v>
+        <v>0.05435805987559417</v>
       </c>
       <c r="F80">
-        <v>0.03563225584596447</v>
+        <v>0.006867291579946836</v>
       </c>
       <c r="G80">
-        <v>0.002102614516199449</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.05339587648832721</v>
+      </c>
+      <c r="H80">
+        <v>-0.03080827701097635</v>
+      </c>
+      <c r="I80">
+        <v>0.03878980059150325</v>
+      </c>
+      <c r="J80">
+        <v>0.05423957097478969</v>
+      </c>
+      <c r="K80">
+        <v>0.05853782209077035</v>
+      </c>
+      <c r="L80">
+        <v>0.07589566125954018</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.01029945269634564</v>
+        <v>0.01669477546694858</v>
       </c>
       <c r="C81">
-        <v>-0.08645167879186441</v>
+        <v>0.1006162294089209</v>
       </c>
       <c r="D81">
-        <v>0.08234796673133014</v>
+        <v>0.0546620909670216</v>
       </c>
       <c r="E81">
-        <v>-0.1101274299849374</v>
+        <v>-0.003386088716061054</v>
       </c>
       <c r="F81">
-        <v>0.08322929081740518</v>
+        <v>-0.05404529795539111</v>
       </c>
       <c r="G81">
-        <v>0.03571212302640907</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1157608191643113</v>
+      </c>
+      <c r="H81">
+        <v>0.0390284602213961</v>
+      </c>
+      <c r="I81">
+        <v>0.04995790437994444</v>
+      </c>
+      <c r="J81">
+        <v>-0.02077101440438633</v>
+      </c>
+      <c r="K81">
+        <v>0.05782487239883399</v>
+      </c>
+      <c r="L81">
+        <v>0.08264177624882632</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.02865490770916517</v>
+        <v>0.04682181338956983</v>
       </c>
       <c r="C82">
-        <v>-0.0933682308357108</v>
+        <v>0.1056866625642277</v>
       </c>
       <c r="D82">
-        <v>0.07802837472191228</v>
+        <v>0.06604350929874193</v>
       </c>
       <c r="E82">
-        <v>-0.1172892287180177</v>
+        <v>-0.01458868669785922</v>
       </c>
       <c r="F82">
-        <v>0.05819554768217877</v>
+        <v>-0.07548836682569515</v>
       </c>
       <c r="G82">
-        <v>0.006481136158573106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.09563236505158129</v>
+      </c>
+      <c r="H82">
+        <v>0.003627755071973725</v>
+      </c>
+      <c r="I82">
+        <v>0.01517555885503631</v>
+      </c>
+      <c r="J82">
+        <v>-0.03231596931921119</v>
+      </c>
+      <c r="K82">
+        <v>0.04792965561317616</v>
+      </c>
+      <c r="L82">
+        <v>0.1115748511161967</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.003887551313946932</v>
+        <v>0.0004978562326166381</v>
       </c>
       <c r="C83">
-        <v>-0.05064421073857762</v>
+        <v>-0.002911840177121486</v>
       </c>
       <c r="D83">
-        <v>-0.1827958202852502</v>
+        <v>-0.06468283435440854</v>
       </c>
       <c r="E83">
-        <v>0.3924930336149935</v>
+        <v>0.9437610828900242</v>
       </c>
       <c r="F83">
-        <v>0.8155511118504911</v>
+        <v>-0.1750977804001995</v>
       </c>
       <c r="G83">
-        <v>-0.155986197476481</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.0471278923731101</v>
+      </c>
+      <c r="H83">
+        <v>-0.1004379247828374</v>
+      </c>
+      <c r="I83">
+        <v>-0.07645070963955602</v>
+      </c>
+      <c r="J83">
+        <v>-0.04305587799500592</v>
+      </c>
+      <c r="K83">
+        <v>0.01963881821356049</v>
+      </c>
+      <c r="L83">
+        <v>0.07828644566916071</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.002632835909847344</v>
+        <v>-0.0007701452981921146</v>
       </c>
       <c r="C84">
-        <v>-0.05299414254624867</v>
+        <v>0.0431110766824738</v>
       </c>
       <c r="D84">
-        <v>0.0306586407887424</v>
+        <v>0.06131106710791646</v>
       </c>
       <c r="E84">
-        <v>0.09045820224144763</v>
+        <v>0.002484470986540849</v>
       </c>
       <c r="F84">
-        <v>-0.09622823020724243</v>
+        <v>0.09359638424621679</v>
       </c>
       <c r="G84">
-        <v>0.1011802464658727</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.03745888507979499</v>
+      </c>
+      <c r="H84">
+        <v>0.07890831355324955</v>
+      </c>
+      <c r="I84">
+        <v>-0.118545875235393</v>
+      </c>
+      <c r="J84">
+        <v>0.01608359612625486</v>
+      </c>
+      <c r="K84">
+        <v>0.049773900583974</v>
+      </c>
+      <c r="L84">
+        <v>0.08893390020706216</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.02153136051171689</v>
+        <v>0.02987170314971281</v>
       </c>
       <c r="C85">
-        <v>-0.1295069312625174</v>
+        <v>0.1157750217746793</v>
       </c>
       <c r="D85">
-        <v>0.09027417867533734</v>
+        <v>0.08010310631819022</v>
       </c>
       <c r="E85">
-        <v>-0.1383389757576335</v>
+        <v>-0.03062882719323109</v>
       </c>
       <c r="F85">
-        <v>0.1139743547025366</v>
+        <v>-0.1290746928906006</v>
       </c>
       <c r="G85">
-        <v>0.08792827377921812</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.2050971273964309</v>
+      </c>
+      <c r="H85">
+        <v>-0.04179729831713087</v>
+      </c>
+      <c r="I85">
+        <v>0.06566154239542174</v>
+      </c>
+      <c r="J85">
+        <v>-0.09715129976538481</v>
+      </c>
+      <c r="K85">
+        <v>0.1320965136745053</v>
+      </c>
+      <c r="L85">
+        <v>0.1054228359958276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.01811345998453546</v>
+        <v>0.01522319186345487</v>
       </c>
       <c r="C86">
-        <v>-0.07037470266224753</v>
+        <v>0.08114330458474105</v>
       </c>
       <c r="D86">
-        <v>-0.03068812177809171</v>
+        <v>0.02541818622648145</v>
       </c>
       <c r="E86">
-        <v>0.03824283353609589</v>
+        <v>0.02394417238629444</v>
       </c>
       <c r="F86">
-        <v>-0.07166088390656844</v>
+        <v>0.088357717846099</v>
       </c>
       <c r="G86">
-        <v>-0.02415055854710358</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.04590360478775188</v>
+      </c>
+      <c r="H86">
+        <v>0.01875306222157456</v>
+      </c>
+      <c r="I86">
+        <v>0.1524662919731754</v>
+      </c>
+      <c r="J86">
+        <v>-0.02854091282407262</v>
+      </c>
+      <c r="K86">
+        <v>-0.1807576682686649</v>
+      </c>
+      <c r="L86">
+        <v>0.08851678487470284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.03739520909613442</v>
+        <v>0.02553408434712046</v>
       </c>
       <c r="C87">
-        <v>-0.1510418993326623</v>
+        <v>0.1184700613115138</v>
       </c>
       <c r="D87">
-        <v>0.01780908661976394</v>
+        <v>0.01750774733451022</v>
       </c>
       <c r="E87">
-        <v>0.1147729514802664</v>
+        <v>0.0133358484898646</v>
       </c>
       <c r="F87">
-        <v>-0.01370263325174394</v>
+        <v>0.07182427424348664</v>
       </c>
       <c r="G87">
-        <v>0.03265892411944254</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.008079280215627828</v>
+      </c>
+      <c r="H87">
+        <v>0.04147584027336503</v>
+      </c>
+      <c r="I87">
+        <v>-0.09781184088206367</v>
+      </c>
+      <c r="J87">
+        <v>-0.1074581600303716</v>
+      </c>
+      <c r="K87">
+        <v>-0.002674901762322933</v>
+      </c>
+      <c r="L87">
+        <v>-0.03237501252334137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.003964654153943476</v>
+        <v>0.03780750944412092</v>
       </c>
       <c r="C88">
-        <v>-0.0374657873381389</v>
+        <v>0.06389388597426085</v>
       </c>
       <c r="D88">
-        <v>0.04812010304385892</v>
+        <v>0.04149098573396248</v>
       </c>
       <c r="E88">
-        <v>-0.05810761814210152</v>
+        <v>-0.01804813865338761</v>
       </c>
       <c r="F88">
-        <v>-0.00814899950275935</v>
+        <v>-0.01898838674872057</v>
       </c>
       <c r="G88">
-        <v>-0.01372480621588034</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02418668037485703</v>
+      </c>
+      <c r="H88">
+        <v>0.004869658910122331</v>
+      </c>
+      <c r="I88">
+        <v>0.01885673771421815</v>
+      </c>
+      <c r="J88">
+        <v>0.04332686921380101</v>
+      </c>
+      <c r="K88">
+        <v>0.07176153198700466</v>
+      </c>
+      <c r="L88">
+        <v>0.1174835157693413</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.3888667080807803</v>
+        <v>0.3900878505538738</v>
       </c>
       <c r="C89">
-        <v>0.08873517950089409</v>
+        <v>-0.113207159239649</v>
       </c>
       <c r="D89">
-        <v>0.1006003101742304</v>
+        <v>-0.03407358696681007</v>
       </c>
       <c r="E89">
-        <v>0.09439082749497388</v>
+        <v>-0.02609269611884022</v>
       </c>
       <c r="F89">
-        <v>0.006211971054194659</v>
+        <v>0.07385584801550443</v>
       </c>
       <c r="G89">
-        <v>0.08885956383065791</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03607496003272366</v>
+      </c>
+      <c r="H89">
+        <v>0.01023199970235764</v>
+      </c>
+      <c r="I89">
+        <v>-0.7337377465866065</v>
+      </c>
+      <c r="J89">
+        <v>0.09992177755010662</v>
+      </c>
+      <c r="K89">
+        <v>-0.06905549693532034</v>
+      </c>
+      <c r="L89">
+        <v>0.06598433843917144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.3055839520308103</v>
+        <v>0.3146550256886619</v>
       </c>
       <c r="C90">
-        <v>0.03046362047465097</v>
+        <v>-0.07344681130500942</v>
       </c>
       <c r="D90">
-        <v>-0.01554741103123077</v>
+        <v>-0.01710766967718021</v>
       </c>
       <c r="E90">
-        <v>0.07132897103514131</v>
+        <v>0.02675518703084043</v>
       </c>
       <c r="F90">
-        <v>0.03581889169415649</v>
+        <v>0.03377994995487748</v>
       </c>
       <c r="G90">
-        <v>-0.03625851580934546</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.0123027292231815</v>
+      </c>
+      <c r="H90">
+        <v>0.02091459878308418</v>
+      </c>
+      <c r="I90">
+        <v>0.08470966039572714</v>
+      </c>
+      <c r="J90">
+        <v>-0.01574841667101965</v>
+      </c>
+      <c r="K90">
+        <v>-0.00189707223717481</v>
+      </c>
+      <c r="L90">
+        <v>-0.03145056356714557</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.03189836079400705</v>
+        <v>0.05222392474271807</v>
       </c>
       <c r="C91">
-        <v>-0.09093599811170326</v>
+        <v>0.08775477957544173</v>
       </c>
       <c r="D91">
-        <v>0.04825007051551969</v>
+        <v>0.04357315648148441</v>
       </c>
       <c r="E91">
-        <v>-0.07286008999764093</v>
+        <v>0.01520988943943631</v>
       </c>
       <c r="F91">
-        <v>0.07382874625159634</v>
+        <v>-0.06399449436408702</v>
       </c>
       <c r="G91">
-        <v>0.03803209967312507</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.07783131825823131</v>
+      </c>
+      <c r="H91">
+        <v>-0.02824130391348251</v>
+      </c>
+      <c r="I91">
+        <v>-0.0001569190347640392</v>
+      </c>
+      <c r="J91">
+        <v>0.01891393071313231</v>
+      </c>
+      <c r="K91">
+        <v>0.04412669142189195</v>
+      </c>
+      <c r="L91">
+        <v>0.037296671651465</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.3804946458304189</v>
+        <v>0.3540771531588117</v>
       </c>
       <c r="C92">
-        <v>0.08673565755003478</v>
+        <v>-0.1200802020659969</v>
       </c>
       <c r="D92">
-        <v>-0.01911392509625184</v>
+        <v>-0.05311671785587301</v>
       </c>
       <c r="E92">
-        <v>0.0009565730178162879</v>
+        <v>-0.02730030985202484</v>
       </c>
       <c r="F92">
-        <v>-0.1009905445296491</v>
+        <v>0.0640637558620465</v>
       </c>
       <c r="G92">
-        <v>0.04290928920936622</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.009038911053074004</v>
+      </c>
+      <c r="H92">
+        <v>0.07435944704696734</v>
+      </c>
+      <c r="I92">
+        <v>0.1530406791082475</v>
+      </c>
+      <c r="J92">
+        <v>0.002302918357147764</v>
+      </c>
+      <c r="K92">
+        <v>-0.01196938679391465</v>
+      </c>
+      <c r="L92">
+        <v>-0.04633888128519269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.3031270592806504</v>
+        <v>0.3117115565953085</v>
       </c>
       <c r="C93">
-        <v>0.08394283805610207</v>
+        <v>-0.1123436782951034</v>
       </c>
       <c r="D93">
-        <v>0.01487725710551908</v>
+        <v>-0.006889181794793991</v>
       </c>
       <c r="E93">
-        <v>0.06285563972719474</v>
+        <v>0.01227409651652707</v>
       </c>
       <c r="F93">
-        <v>-0.01050523499425127</v>
+        <v>0.03867359482528543</v>
       </c>
       <c r="G93">
-        <v>0.02300338851378488</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04036277636879299</v>
+      </c>
+      <c r="H93">
+        <v>0.03671596669640187</v>
+      </c>
+      <c r="I93">
+        <v>0.1075115894425996</v>
+      </c>
+      <c r="J93">
+        <v>-0.0107578676372824</v>
+      </c>
+      <c r="K93">
+        <v>0.003892263564818854</v>
+      </c>
+      <c r="L93">
+        <v>0.04460995370820836</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.05355426577407888</v>
+        <v>0.07917108627666926</v>
       </c>
       <c r="C94">
-        <v>-0.2083478395680121</v>
+        <v>0.1678059947787063</v>
       </c>
       <c r="D94">
-        <v>0.1680020803443877</v>
+        <v>0.1037673893953407</v>
       </c>
       <c r="E94">
-        <v>-0.2939658985562055</v>
+        <v>-0.03778169791830808</v>
       </c>
       <c r="F94">
-        <v>0.2633071501038529</v>
+        <v>-0.1632585620032622</v>
       </c>
       <c r="G94">
-        <v>0.5044693582889517</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.53526425316351</v>
+      </c>
+      <c r="H94">
+        <v>-0.2285857624491493</v>
+      </c>
+      <c r="I94">
+        <v>-0.132388385626957</v>
+      </c>
+      <c r="J94">
+        <v>0.3177386115159949</v>
+      </c>
+      <c r="K94">
+        <v>0.0008699592429322982</v>
+      </c>
+      <c r="L94">
+        <v>-0.5041368192605344</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.0386783445501517</v>
+        <v>0.03850733607605007</v>
       </c>
       <c r="C95">
-        <v>-0.1013843251867679</v>
+        <v>0.1285424518551991</v>
       </c>
       <c r="D95">
-        <v>0.04033561292921568</v>
+        <v>0.0596295883458235</v>
       </c>
       <c r="E95">
-        <v>-0.05433702285755422</v>
+        <v>-0.04921545369857021</v>
       </c>
       <c r="F95">
-        <v>0.05318637494976499</v>
+        <v>-0.07194221520498723</v>
       </c>
       <c r="G95">
-        <v>-0.1522315587504114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.04747561935971126</v>
+      </c>
+      <c r="H95">
+        <v>0.07305687838870378</v>
+      </c>
+      <c r="I95">
+        <v>-0.155163741499474</v>
+      </c>
+      <c r="J95">
+        <v>0.03154144976657663</v>
+      </c>
+      <c r="K95">
+        <v>0.2804308700684227</v>
+      </c>
+      <c r="L95">
+        <v>0.1758610005607055</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4348,139 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.0005317180587756534</v>
+        <v>0.01143550760431647</v>
       </c>
       <c r="C97">
-        <v>-0.0007915659789040576</v>
+        <v>0.01723630925395814</v>
       </c>
       <c r="D97">
-        <v>-4.003071806436394e-05</v>
+        <v>-0.008648817369855418</v>
       </c>
       <c r="E97">
-        <v>-0.0001070691354972245</v>
+        <v>-0.02916197895635144</v>
       </c>
       <c r="F97">
-        <v>-0.001369229198683031</v>
+        <v>0.01576472424017495</v>
       </c>
       <c r="G97">
-        <v>0.001215197006152475</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.02772853147166833</v>
+      </c>
+      <c r="H97">
+        <v>0.03578085309866946</v>
+      </c>
+      <c r="I97">
+        <v>-0.01166246178319988</v>
+      </c>
+      <c r="J97">
+        <v>0.1115403267989267</v>
+      </c>
+      <c r="K97">
+        <v>-0.08384965411727589</v>
+      </c>
+      <c r="L97">
+        <v>0.07076194089122304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.08946398764353834</v>
+        <v>0.1305775145653083</v>
       </c>
       <c r="C98">
-        <v>-0.1499781000425697</v>
+        <v>0.1591631426613565</v>
       </c>
       <c r="D98">
-        <v>0.1051921387855438</v>
+        <v>0.08606832070164278</v>
       </c>
       <c r="E98">
-        <v>-0.07540435131716437</v>
+        <v>-0.04173431634226205</v>
       </c>
       <c r="F98">
-        <v>-0.04101963865231025</v>
+        <v>-0.2094216673682844</v>
       </c>
       <c r="G98">
-        <v>-0.2761568535913384</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3385171662960978</v>
+      </c>
+      <c r="H98">
+        <v>-0.3341729254482821</v>
+      </c>
+      <c r="I98">
+        <v>0.09948078242150891</v>
+      </c>
+      <c r="J98">
+        <v>-3.157157490215231e-05</v>
+      </c>
+      <c r="K98">
+        <v>-0.1357046056308784</v>
+      </c>
+      <c r="L98">
+        <v>-0.1973796483403338</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01030934882412204</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.04075615271775922</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.001435599885803051</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.005248924516592172</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.06528467911988481</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.05625982045060409</v>
+      </c>
+      <c r="H99">
+        <v>0.09634441799316688</v>
+      </c>
+      <c r="I99">
+        <v>0.06806388562444282</v>
+      </c>
+      <c r="J99">
+        <v>0.6266277106998203</v>
+      </c>
+      <c r="K99">
+        <v>-0.5319972672442671</v>
+      </c>
+      <c r="L99">
+        <v>0.3429378750037765</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4500,101 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.00484559424863059</v>
+        <v>0.0132826535456716</v>
       </c>
       <c r="C101">
-        <v>-0.07121523522338927</v>
+        <v>0.07998468053769302</v>
       </c>
       <c r="D101">
-        <v>0.04177937747775581</v>
+        <v>0.05334347549963866</v>
       </c>
       <c r="E101">
-        <v>0.04442999594198502</v>
+        <v>0.05454933226157121</v>
       </c>
       <c r="F101">
-        <v>-0.01115907717378016</v>
+        <v>-0.009170913309020359</v>
       </c>
       <c r="G101">
-        <v>-0.09128581514968558</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1147220923506942</v>
+      </c>
+      <c r="H101">
+        <v>0.2942883507430084</v>
+      </c>
+      <c r="I101">
+        <v>-0.03295504044405153</v>
+      </c>
+      <c r="J101">
+        <v>0.148411585035943</v>
+      </c>
+      <c r="K101">
+        <v>0.08591033329382448</v>
+      </c>
+      <c r="L101">
+        <v>-0.3039831149166938</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
-        <v>-0.009275825051520407</v>
+        <v>0.00354733138011502</v>
       </c>
       <c r="C102">
-        <v>-0.031591446091691</v>
+        <v>0.0122548871406385</v>
       </c>
       <c r="D102">
-        <v>0.00985554699604272</v>
+        <v>0.001714239971097849</v>
       </c>
       <c r="E102">
-        <v>-0.02493278584455081</v>
+        <v>0.004009059441227341</v>
       </c>
       <c r="F102">
-        <v>0.02784745712481079</v>
+        <v>-0.008884015645151819</v>
       </c>
       <c r="G102">
-        <v>-0.000193369916421298</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.008907295694153666</v>
+      </c>
+      <c r="H102">
+        <v>0.001789788859032311</v>
+      </c>
+      <c r="I102">
+        <v>-0.01826811079933825</v>
+      </c>
+      <c r="J102">
+        <v>0.0066005692304509</v>
+      </c>
+      <c r="K102">
+        <v>-0.007407282802892574</v>
+      </c>
+      <c r="L102">
+        <v>-0.02656393226526977</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
